--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AC/10/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AC/10/seed2/result_data_RandomForest.xlsx
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-22.02390000000001</v>
+        <v>-21.99510000000001</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-19.90639999999999</v>
+        <v>-19.78979999999998</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.55529999999997</v>
+        <v>-20.36379999999997</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.58159999999998</v>
+        <v>-21.60319999999999</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -893,7 +893,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.831</v>
+        <v>-12.615</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -961,7 +961,7 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.2971</v>
+        <v>-13.004</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -1097,7 +1097,7 @@
         <v>9.35</v>
       </c>
       <c r="C39" t="n">
-        <v>-12.86000000000001</v>
+        <v>-12.75230000000001</v>
       </c>
       <c r="D39" t="n">
         <v>-8.93</v>
@@ -1250,7 +1250,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-11.6809</v>
+        <v>-11.66339999999999</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1301,7 +1301,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.6915</v>
+        <v>-11.9042</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.1049</v>
+        <v>-10.98589999999999</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-21.8832</v>
+        <v>-21.8668</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
@@ -1369,7 +1369,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.3886</v>
+        <v>-13.78169999999999</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1386,7 +1386,7 @@
         <v>4.42</v>
       </c>
       <c r="C56" t="n">
-        <v>-12.3952</v>
+        <v>-12.5209</v>
       </c>
       <c r="D56" t="n">
         <v>-8.92</v>
@@ -1397,13 +1397,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-21.93320000000001</v>
+        <v>-22.02659999999999</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-12.7336</v>
+        <v>-13.05209999999999</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.1497</v>
+        <v>-22.2561</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.60030000000001</v>
+        <v>-21.62830000000001</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1675,7 +1675,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-12.42910000000001</v>
+        <v>-12.38300000000001</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.50320000000001</v>
+        <v>-20.43450000000001</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.92759999999999</v>
+        <v>-21.9454</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1947,7 +1947,7 @@
         <v>4.69</v>
       </c>
       <c r="C89" t="n">
-        <v>-10.2828</v>
+        <v>-10.33890000000001</v>
       </c>
       <c r="D89" t="n">
         <v>-7</v>
@@ -1964,7 +1964,7 @@
         <v>7.49</v>
       </c>
       <c r="C90" t="n">
-        <v>-12.1404</v>
+        <v>-12.5555</v>
       </c>
       <c r="D90" t="n">
         <v>-8.890000000000001</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.4709</v>
+        <v>-21.3215</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
